--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Documents\can-open-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AB8171-0E59-4846-9094-44934D9980DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBCED04-7370-46A6-9A52-E37A30DBAD39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF497727-1474-46CF-A2C0-F3A42D86D26A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0367A9D9-67A2-47D4-BD9A-F3392D324FFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Message Description List" sheetId="1" r:id="rId1"/>
+    <sheet name="Signal Description list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,18 +31,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+  <si>
+    <t>Message ID</t>
+  </si>
+  <si>
+    <t>Message Name</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>0x123</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scalars</t>
+  </si>
+  <si>
+    <t>Size (bits)</t>
+  </si>
+  <si>
+    <t>Signal for the engine RPM</t>
+  </si>
+  <si>
+    <t>Engine Speed</t>
+  </si>
+  <si>
+    <t>Engine Status</t>
+  </si>
+  <si>
+    <t>Engine Speed upper byte</t>
+  </si>
+  <si>
+    <t>Lower lower byte</t>
+  </si>
+  <si>
+    <t>TEST SHEET ONLY</t>
+  </si>
+  <si>
+    <t>upper byte + lower byte, hex to dec</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Used by the instrument cluster for tach signal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,8 +166,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,21 +510,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE22736-7075-4FAC-B3FB-1C7C618F7AF7}">
-  <dimension ref="M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15169FE-A801-4EEF-AFED-88E0E974A48E}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M13" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4</v>
+      </c>
+      <c r="L4" s="8">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>6</v>
+      </c>
+      <c r="N4" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDABB773-0D90-4C35-B746-7BD257C47191}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Documents\can-open-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBCED04-7370-46A6-9A52-E37A30DBAD39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA0A2C-1E1D-463B-80B1-1241A43E9D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0367A9D9-67A2-47D4-BD9A-F3392D324FFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0367A9D9-67A2-47D4-BD9A-F3392D324FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Message Description List" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Message ID</t>
   </si>
@@ -91,16 +91,41 @@
   </si>
   <si>
     <t>Used by the instrument cluster for tach signal</t>
+  </si>
+  <si>
+    <t>Taken from 2015 BRZ Cluster on bench tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of busses: </t>
+  </si>
+  <si>
+    <t>Baud rate:</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>2015+ Subaru Impreza/BRZ</t>
+  </si>
+  <si>
+    <t>****TEST SHEET ONLY*** THIS IS NOT REAL DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,8 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,36 +192,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,101 +552,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15169FE-A801-4EEF-AFED-88E0E974A48E}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="G1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="8">
+      <c r="G4" s="5"/>
+      <c r="H4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="9">
         <v>4</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="9">
         <v>5</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="9">
         <v>6</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
@@ -622,14 +695,26 @@
       <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="D3:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H3:O3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -638,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDABB773-0D90-4C35-B746-7BD257C47191}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,19 +740,25 @@
     <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="G1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,14 +778,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>16</v>
       </c>
       <c r="G4" t="s">
@@ -708,8 +799,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
